--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D08C4E4-1AE8-4F86-A34D-8E244165D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ECDD-E086-41F5-8F45-7964915B48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,19 +346,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>使用動機を持つ全ユーザー</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウドウキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>DBにデータが登録され、メニュー画面に遷移にできる。</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -444,6 +431,19 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>使用動機を持つログイン済みユーザー</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウドウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1210,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1325,6 +1325,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,29 +1352,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,85 +1454,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,11 +1502,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1502,38 +1523,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2618,85 +2621,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2716,46 +2719,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="103">
+      <c r="H13" s="41"/>
+      <c r="I13" s="47">
         <v>45877</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="38"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2764,13 +2767,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3778,7 +3781,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+      <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3789,19 +3792,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3813,195 +3816,195 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="104">
+      <c r="G2" s="83"/>
+      <c r="H2" s="86">
         <v>45877</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="80" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="81"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="76" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="77"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="76" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A8" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="61" t="s">
-        <v>11</v>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A13" s="58" t="s">
+        <v>17</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="107"/>
-    </row>
-    <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="76" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="79"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -4992,6 +4995,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5000,25 +5022,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5042,19 +5045,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5066,48 +5069,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="104">
+      <c r="G2" s="83"/>
+      <c r="H2" s="86">
         <v>45877</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="57"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6455,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6467,19 +6470,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6491,40 +6494,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7867,7 +7870,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -7879,19 +7882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7903,189 +7906,189 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="81"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="77"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="91"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="91"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="91"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="91"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="91"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="91"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="77"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
@@ -8098,95 +8101,95 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="77"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="77"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="77"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="77"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="77"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="77"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="77"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="79"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9167,19 +9170,8 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -9196,8 +9188,19 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9209,7 +9212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9219,182 +9224,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="69"/>
+      <c r="S1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="81"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="90"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="91"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="97"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="80" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="81"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="53"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="76" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="77"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="55"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="76" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="77"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="55"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9593,37 +9598,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="100" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="92" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="92" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="92" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="92" t="s">
+      <c r="K15" s="41"/>
+      <c r="L15" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="92" t="s">
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
       <c r="R15" s="15" t="s">
         <v>49</v>
       </c>
@@ -9638,34 +9643,34 @@
       <c r="A16" s="98">
         <v>1</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="93" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="93" t="s">
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="95" t="s">
+      <c r="K16" s="41"/>
+      <c r="L16" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="95" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
@@ -9680,34 +9685,34 @@
       <c r="A17" s="98">
         <v>2</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="93" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="93" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="95" t="s">
+      <c r="K17" s="41"/>
+      <c r="L17" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="95" t="s">
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
@@ -9720,22 +9725,22 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
       <c r="A18" s="98"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="99"/>
-      <c r="D18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="99"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
@@ -9748,22 +9753,22 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
       <c r="A19" s="98"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="99"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="99"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
@@ -9776,22 +9781,22 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="98"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="99"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="99"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
@@ -9804,22 +9809,22 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
       <c r="A21" s="98"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="99"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="99"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
@@ -9832,22 +9837,22 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="99"/>
-      <c r="D22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="99"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -9860,22 +9865,22 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="98"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="99"/>
-      <c r="D23" s="40"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="99"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
@@ -9888,22 +9893,22 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
       <c r="A24" s="98"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="99"/>
-      <c r="D24" s="40"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="99"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -9916,22 +9921,22 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="98"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="99"/>
-      <c r="D25" s="40"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="99"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
@@ -9944,22 +9949,22 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="99"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="99"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
@@ -9972,22 +9977,22 @@
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="98"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="99"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="99"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
@@ -10000,22 +10005,22 @@
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="98"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="99"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="99"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
@@ -10028,22 +10033,22 @@
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="98"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="99"/>
-      <c r="D29" s="40"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="99"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
@@ -10056,22 +10061,22 @@
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
       <c r="A30" s="98"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="99"/>
-      <c r="D30" s="40"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="99"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
@@ -10083,23 +10088,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="64"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -11097,62 +11102,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -11177,62 +11182,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ECDD-E086-41F5-8F45-7964915B48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED980B-D4F7-445E-848A-CEFD52C85302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -447,6 +447,13 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>５７期</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -1355,23 +1362,56 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1379,14 +1419,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1403,26 +1440,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1433,55 +1461,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,17 +1512,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1523,20 +1527,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2406,6 +2413,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1083900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA798EC-BF4D-EC4C-A040-A5C454532412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1162049"/>
+          <a:ext cx="8789625" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3780,7 +3842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
@@ -3792,19 +3854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3816,72 +3878,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="86">
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>45877</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="40"/>
@@ -3889,15 +3951,15 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="41"/>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="65" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="40"/>
@@ -3905,15 +3967,15 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="85" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="40"/>
@@ -3921,17 +3983,17 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="86" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="40"/>
@@ -3939,15 +4001,15 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="85" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="40"/>
@@ -3955,16 +4017,16 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="87" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="40"/>
@@ -3972,15 +4034,15 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="65" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="40"/>
@@ -3988,23 +4050,23 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -4995,17 +5057,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5014,14 +5073,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5033,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5045,19 +5107,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5069,48 +5131,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="86">
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>45877</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6458,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6470,19 +6532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6494,40 +6556,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
+        <v>45881</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7860,6 +7930,7 @@
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7870,8 +7941,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7882,19 +7953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7906,57 +7977,57 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="91"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="40"/>
@@ -7967,7 +8038,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="92"/>
@@ -7982,7 +8053,7 @@
       <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="63"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -7994,7 +8065,7 @@
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="63"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -8006,7 +8077,7 @@
       <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -8018,7 +8089,7 @@
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -8030,7 +8101,7 @@
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -8042,7 +8113,7 @@
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="63"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -8054,7 +8125,7 @@
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="40"/>
@@ -8065,15 +8136,15 @@
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="54"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -8084,7 +8155,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="40"/>
@@ -8105,91 +8176,91 @@
         <v>17</v>
       </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9170,11 +9241,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -9184,23 +9266,12 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9224,133 +9295,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="81" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="81" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="81" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="81" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="53"/>
+      <c r="T1" s="84"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="82"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="93"/>
       <c r="M2" s="93"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="82"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="50"/>
       <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="84"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="84"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="52"/>
       <c r="T3" s="95"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="106"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="84"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="40"/>
@@ -9358,7 +9429,7 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="40"/>
@@ -9373,10 +9444,10 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="40"/>
@@ -9384,7 +9455,7 @@
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="65" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="40"/>
@@ -9399,7 +9470,7 @@
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
-      <c r="T7" s="55"/>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9598,11 +9669,11 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="106" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="41"/>
@@ -9640,33 +9711,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="98">
+      <c r="A16" s="104">
         <v>1</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="105" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="105" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="41"/>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="99" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="99" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="102" t="s">
+      <c r="L16" s="101" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="41"/>
-      <c r="O16" s="102" t="s">
+      <c r="O16" s="101" t="s">
         <v>57</v>
       </c>
       <c r="P16" s="40"/>
@@ -9682,33 +9753,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="98">
+      <c r="A17" s="104">
         <v>2</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="105" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="41"/>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="105" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="41"/>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="99" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="99" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="102" t="s">
+      <c r="L17" s="101" t="s">
         <v>62</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="102" t="s">
+      <c r="O17" s="101" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="40"/>
@@ -9724,21 +9795,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="98"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="99"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="99"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="104"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="102"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="102"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="33"/>
@@ -9752,21 +9823,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="99"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="99"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="104"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="104"/>
+      <c r="J19" s="99"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="102"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="102"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="33"/>
@@ -9780,21 +9851,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="99"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="99"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="104"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="104"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="102"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="102"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="33"/>
@@ -9808,21 +9879,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="99"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="99"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="104"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="104"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="102"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="102"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="33"/>
@@ -9836,21 +9907,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="99"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="99"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="104"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="104"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="102"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
-      <c r="O22" s="102"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="33"/>
@@ -9864,21 +9935,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="99"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="41"/>
-      <c r="E23" s="99"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="104"/>
+      <c r="J23" s="99"/>
       <c r="K23" s="41"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
-      <c r="O23" s="102"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="33"/>
@@ -9892,21 +9963,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="99"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="99"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="40"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="104"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="102"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="33"/>
@@ -9920,21 +9991,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="98"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="99"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="99"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="104"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="41"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
-      <c r="O25" s="102"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="33"/>
@@ -9948,21 +10019,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="98"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="99"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="99"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="104"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="40"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="104"/>
+      <c r="J26" s="99"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="40"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="102"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="33"/>
@@ -9976,21 +10047,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="98"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="99"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="99"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="104"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="104"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="102"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="33"/>
@@ -10004,21 +10075,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="99"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="99"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="104"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="104"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="102"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="40"/>
       <c r="N28" s="41"/>
-      <c r="O28" s="102"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="33"/>
@@ -10032,21 +10103,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="99"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="99"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="104"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="40"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="104"/>
+      <c r="J29" s="99"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="102"/>
+      <c r="L29" s="101"/>
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
-      <c r="O29" s="102"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="33"/>
@@ -10060,21 +10131,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="98"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="99"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="99"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="104"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="104"/>
+      <c r="J30" s="99"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="102"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="40"/>
       <c r="N30" s="41"/>
-      <c r="O30" s="102"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="41"/>
       <c r="R30" s="33"/>
@@ -10088,23 +10159,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="59"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="69"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -11102,62 +11173,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -11182,62 +11253,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED980B-D4F7-445E-848A-CEFD52C85302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ECDD-E086-41F5-8F45-7964915B48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -447,13 +447,6 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
-  <si>
-    <t>５７期</t>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
 </sst>
 </file>
 
@@ -1362,56 +1355,23 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1419,11 +1379,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1440,17 +1403,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1461,34 +1433,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,14 +1505,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1527,23 +1523,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2413,61 +2406,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1083900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA798EC-BF4D-EC4C-A040-A5C454532412}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="1162049"/>
-          <a:ext cx="8789625" cy="3952875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3842,7 +3780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
@@ -3854,19 +3792,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3878,72 +3816,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="G2" s="83"/>
+      <c r="H2" s="86">
         <v>45877</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="40"/>
@@ -3951,15 +3889,15 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="41"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="40"/>
@@ -3967,15 +3905,15 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="66"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="56" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="40"/>
@@ -3983,17 +3921,17 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="66"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="108" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="40"/>
@@ -4001,15 +3939,15 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="66"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="56" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="40"/>
@@ -4017,16 +3955,16 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="57" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="40"/>
@@ -4034,15 +3972,15 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="40"/>
@@ -4050,23 +3988,23 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="81" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="82"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -5057,6 +4995,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5065,25 +5022,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5095,7 +5033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5107,19 +5045,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5131,48 +5069,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="G2" s="83"/>
+      <c r="H2" s="86">
         <v>45877</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6520,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6532,19 +6470,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6556,48 +6494,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
-        <v>45881</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7930,7 +7860,6 @@
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7941,8 +7870,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7953,19 +7882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7977,57 +7906,57 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="73"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="91"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="40"/>
@@ -8038,7 +7967,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="92"/>
@@ -8053,7 +7982,7 @@
       <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -8065,7 +7994,7 @@
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -8077,7 +8006,7 @@
       <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="73"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -8089,7 +8018,7 @@
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -8101,7 +8030,7 @@
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -8113,7 +8042,7 @@
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -8125,7 +8054,7 @@
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="40"/>
@@ -8136,15 +8065,15 @@
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="66"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="65"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -8155,7 +8084,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="40"/>
@@ -8176,91 +8105,91 @@
         <v>17</v>
       </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="66"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="90"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="65"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="90"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="65"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="90"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="65"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="90"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="65"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="66"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="65"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="66"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="90"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="65"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="66"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="82"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9241,22 +9170,11 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -9266,12 +9184,23 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9295,133 +9224,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="69"/>
+      <c r="S1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="84"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="93"/>
       <c r="M2" s="93"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="84"/>
       <c r="T3" s="95"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="103"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="83" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="84"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="53"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="90" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="40"/>
@@ -9429,7 +9358,7 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="40"/>
@@ -9444,10 +9373,10 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
-      <c r="T6" s="66"/>
+      <c r="T6" s="55"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="40"/>
@@ -9455,7 +9384,7 @@
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="54" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="40"/>
@@ -9470,7 +9399,7 @@
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
-      <c r="T7" s="66"/>
+      <c r="T7" s="55"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9669,11 +9598,11 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="105" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="41"/>
@@ -9711,33 +9640,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="98">
         <v>1</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="99" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="99" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="41"/>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="104" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="104" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="102" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="41"/>
-      <c r="O16" s="101" t="s">
+      <c r="O16" s="102" t="s">
         <v>57</v>
       </c>
       <c r="P16" s="40"/>
@@ -9753,33 +9682,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="98">
         <v>2</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="41"/>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="99" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="41"/>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="104" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="104" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="102" t="s">
         <v>62</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="102" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="40"/>
@@ -9795,21 +9724,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="105"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="105"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="99"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="99"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="101"/>
+      <c r="O18" s="102"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="33"/>
@@ -9823,21 +9752,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="105"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="105"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="99"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="99"/>
+      <c r="J19" s="104"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="101"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="101"/>
+      <c r="O19" s="102"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="33"/>
@@ -9851,21 +9780,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="104"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="105"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="105"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="99"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="99"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="101"/>
+      <c r="O20" s="102"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="33"/>
@@ -9879,21 +9808,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="105"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="99"/>
+      <c r="J21" s="104"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="101"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="101"/>
+      <c r="O21" s="102"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="33"/>
@@ -9907,21 +9836,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="104"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="105"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="99"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="99"/>
+      <c r="J22" s="104"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
-      <c r="O22" s="101"/>
+      <c r="O22" s="102"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="33"/>
@@ -9935,21 +9864,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="104"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="105"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="41"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="99"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="104"/>
       <c r="K23" s="41"/>
-      <c r="L23" s="101"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
-      <c r="O23" s="101"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="33"/>
@@ -9963,21 +9892,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="104"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="105"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="99"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="40"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="99"/>
+      <c r="J24" s="104"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="101"/>
+      <c r="O24" s="102"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="33"/>
@@ -9991,21 +9920,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="104"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="105"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="99"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="99"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="104"/>
       <c r="K25" s="41"/>
-      <c r="L25" s="101"/>
+      <c r="L25" s="102"/>
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
-      <c r="O25" s="101"/>
+      <c r="O25" s="102"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="33"/>
@@ -10019,21 +9948,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="105"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="40"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="99"/>
+      <c r="J26" s="104"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="101"/>
+      <c r="L26" s="102"/>
       <c r="M26" s="40"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="101"/>
+      <c r="O26" s="102"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="33"/>
@@ -10047,21 +9976,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="104"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="105"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="99"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="99"/>
+      <c r="J27" s="104"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="101"/>
+      <c r="L27" s="102"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="101"/>
+      <c r="O27" s="102"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="33"/>
@@ -10075,21 +10004,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="104"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="105"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="99"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="99"/>
+      <c r="J28" s="104"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="101"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="40"/>
       <c r="N28" s="41"/>
-      <c r="O28" s="101"/>
+      <c r="O28" s="102"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="33"/>
@@ -10103,21 +10032,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="105"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="99"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="40"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="99"/>
+      <c r="J29" s="104"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="101"/>
+      <c r="L29" s="102"/>
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
-      <c r="O29" s="101"/>
+      <c r="O29" s="102"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="33"/>
@@ -10131,21 +10060,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="105"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="99"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="99"/>
+      <c r="J30" s="104"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="101"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="40"/>
       <c r="N30" s="41"/>
-      <c r="O30" s="101"/>
+      <c r="O30" s="102"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="41"/>
       <c r="R30" s="33"/>
@@ -10159,23 +10088,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="69"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -11173,6 +11102,118 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -11197,118 +11238,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ECDD-E086-41F5-8F45-7964915B48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A3B46-3ECE-4762-8AE4-6AF15B10C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -447,6 +447,10 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>システム名</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -1355,23 +1359,56 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1379,14 +1416,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1403,26 +1437,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1433,55 +1458,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,17 +1509,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1523,20 +1524,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3780,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
@@ -3792,19 +3796,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3816,72 +3820,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="86">
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>45877</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="40"/>
@@ -3889,15 +3893,15 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="41"/>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="65" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="40"/>
@@ -3905,15 +3909,15 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="85" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="40"/>
@@ -3921,17 +3925,17 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="86" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="40"/>
@@ -3939,15 +3943,15 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="85" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="40"/>
@@ -3955,16 +3959,16 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="87" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="40"/>
@@ -3972,15 +3976,15 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="65" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="40"/>
@@ -3988,23 +3992,23 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -4995,17 +4999,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5014,14 +5015,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5033,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5045,19 +5049,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5069,48 +5073,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="86">
+      <c r="G2" s="51"/>
+      <c r="H2" s="56">
         <v>45877</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6458,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6470,19 +6474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6494,40 +6498,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7870,8 +7874,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7882,19 +7886,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="81" t="s">
-        <v>3</v>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="48" t="s">
+        <v>77</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7906,57 +7910,59 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="79"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="91"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="40"/>
@@ -7967,7 +7973,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="92"/>
@@ -7982,7 +7988,7 @@
       <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="63"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -7994,7 +8000,7 @@
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="63"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -8006,7 +8012,7 @@
       <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -8018,7 +8024,7 @@
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -8030,7 +8036,7 @@
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -8042,7 +8048,7 @@
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="63"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -8054,7 +8060,7 @@
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="40"/>
@@ -8065,15 +8071,15 @@
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="54"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -8084,7 +8090,7 @@
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="40"/>
@@ -8105,91 +8111,91 @@
         <v>17</v>
       </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9170,11 +9176,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -9184,23 +9201,12 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9224,133 +9230,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="81" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="81" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="81" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="81" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="81" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="53"/>
+      <c r="T1" s="84"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="82"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="93"/>
       <c r="M2" s="93"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="82"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="50"/>
       <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="63"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="84"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="84"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="52"/>
       <c r="T3" s="95"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="106"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="84"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="40"/>
@@ -9358,7 +9364,7 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="40"/>
@@ -9373,10 +9379,10 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="40"/>
@@ -9384,7 +9390,7 @@
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="65" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="40"/>
@@ -9399,7 +9405,7 @@
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
-      <c r="T7" s="55"/>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9598,11 +9604,11 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="106" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="41"/>
@@ -9640,33 +9646,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="98">
+      <c r="A16" s="104">
         <v>1</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="105" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="105" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="41"/>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="99" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="99" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="41"/>
-      <c r="L16" s="102" t="s">
+      <c r="L16" s="101" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="41"/>
-      <c r="O16" s="102" t="s">
+      <c r="O16" s="101" t="s">
         <v>57</v>
       </c>
       <c r="P16" s="40"/>
@@ -9682,33 +9688,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="98">
+      <c r="A17" s="104">
         <v>2</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="105" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="41"/>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="105" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="41"/>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="99" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="99" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="41"/>
-      <c r="L17" s="102" t="s">
+      <c r="L17" s="101" t="s">
         <v>62</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="102" t="s">
+      <c r="O17" s="101" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="40"/>
@@ -9724,21 +9730,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="98"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="99"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="99"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="104"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="102"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="102"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="33"/>
@@ -9752,21 +9758,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="99"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="99"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="104"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="104"/>
+      <c r="J19" s="99"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="102"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="102"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="33"/>
@@ -9780,21 +9786,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="99"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="99"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="104"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="104"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="102"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="102"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="33"/>
@@ -9808,21 +9814,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="99"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="99"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="104"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="104"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="102"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="102"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="33"/>
@@ -9836,21 +9842,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="99"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="99"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="104"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="104"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="102"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
-      <c r="O22" s="102"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="33"/>
@@ -9864,21 +9870,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="99"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="41"/>
-      <c r="E23" s="99"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="104"/>
+      <c r="J23" s="99"/>
       <c r="K23" s="41"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
-      <c r="O23" s="102"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="33"/>
@@ -9892,21 +9898,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="99"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="99"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="40"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="104"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="102"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="40"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="102"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="33"/>
@@ -9920,21 +9926,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="98"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="99"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="99"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="104"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="41"/>
-      <c r="L25" s="102"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="40"/>
       <c r="N25" s="41"/>
-      <c r="O25" s="102"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="33"/>
@@ -9948,21 +9954,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="98"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="99"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="99"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="104"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="40"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="104"/>
+      <c r="J26" s="99"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="102"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="40"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="102"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="33"/>
@@ -9976,21 +9982,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="98"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="99"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="99"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="104"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="104"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="102"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="40"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="102"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="33"/>
@@ -10004,21 +10010,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="99"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="99"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="104"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="104"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="102"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="40"/>
       <c r="N28" s="41"/>
-      <c r="O28" s="102"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="33"/>
@@ -10032,21 +10038,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="99"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="99"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="104"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="40"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="104"/>
+      <c r="J29" s="99"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="102"/>
+      <c r="L29" s="101"/>
       <c r="M29" s="40"/>
       <c r="N29" s="41"/>
-      <c r="O29" s="102"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="33"/>
@@ -10060,21 +10066,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="98"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="99"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="99"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="104"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="104"/>
+      <c r="J30" s="99"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="102"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="40"/>
       <c r="N30" s="41"/>
-      <c r="O30" s="102"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="41"/>
       <c r="R30" s="33"/>
@@ -10088,23 +10094,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="59"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="69"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -11102,62 +11108,62 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -11182,62 +11188,62 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A3B46-3ECE-4762-8AE4-6AF15B10C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEDCC7-1AFE-4587-A058-6AA35B144279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,34 @@
     <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -127,25 +150,16 @@
     <t>テストレベル</t>
   </si>
   <si>
-    <t>システムテスト</t>
-  </si>
-  <si>
     <t>テストベース</t>
   </si>
   <si>
     <t>テスト対象</t>
   </si>
   <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
     <t>重要度</t>
   </si>
   <si>
     <t>重要度は、次のいずれかを持つ</t>
-  </si>
-  <si>
-    <t>◎：仕様　⇒100%解決する必要がある</t>
   </si>
   <si>
     <t>○：重要　⇒別途テストパス率の指針に従う</t>
@@ -182,45 +196,6 @@
   </si>
   <si>
     <t>結果</t>
-  </si>
-  <si>
-    <t>◎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常系
-</t>
-  </si>
-  <si>
-    <t>URLアクセス</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移する</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>異常系</t>
-  </si>
-  <si>
-    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
-  </si>
-  <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
-    <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
   </si>
   <si>
     <t>タスク管理システム</t>
@@ -451,6 +426,297 @@
     <t>システム名</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>selectbox</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>limit_date</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>textbox</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>taskEditServlet</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コンポーネントテスト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>１００文字以内</t>
+    <rPh sb="3" eb="7">
+      <t>モジイナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>取り消し</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>内容に変更を加えたとき更新が適用されるか。</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>すでにDBに変更前のタスクが登録されている。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>各項目を任意に適当な値に変更</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更内容がDBに登録され、登録成功画面に遷移する。</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>トウロクセイコウガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBへの接続不良時のエラー表示</t>
+    <rPh sb="4" eb="8">
+      <t>セツゾクフリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>MySQLを起動せずに変更を行う。</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBの内容が更新されず、エラー画面に遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更内容を消去して編集ボタンを押した場合</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポップアップが表示され、遷移できない。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>文字化け</t>
+    <rPh sb="0" eb="3">
+      <t>モジバ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日本語の文字列を入力し更新する。</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBの内容が入力した文字通りになっている。</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ドオ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -535,6 +801,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -550,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1210,11 +1483,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,15 +1640,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1332,6 +1694,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,12 +1724,111 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,120 +1838,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1506,41 +1874,107 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,16 +2183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1049111</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14968</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7441</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:colOff>206307</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:rowOff>26114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1773,8 +2207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4301218" y="3389539"/>
-          <a:ext cx="1315810" cy="537483"/>
+          <a:off x="4384888" y="3318319"/>
+          <a:ext cx="1313493" cy="534008"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1906,16 +2340,25 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1927,15 +2370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>451759</xdr:colOff>
+      <xdr:colOff>454960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137432</xdr:rowOff>
+      <xdr:rowOff>137433</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1952,23 +2395,34 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2588080" y="2634343"/>
-          <a:ext cx="1235527" cy="714375"/>
+        <a:xfrm rot="5400000">
+          <a:off x="2875070" y="2272914"/>
+          <a:ext cx="688762" cy="1225923"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1980,15 +2434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>451759</xdr:colOff>
+      <xdr:colOff>452339</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2005,23 +2459,34 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2588080" y="3886201"/>
-          <a:ext cx="1197427" cy="842281"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2780129" y="3668385"/>
+          <a:ext cx="836491" cy="1195690"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2039,9 +2504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>591230</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14968</xdr:rowOff>
+      <xdr:colOff>664188</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2058,23 +2523,34 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3823607" y="2634343"/>
-          <a:ext cx="1135516" cy="755196"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4081513" y="2358197"/>
+          <a:ext cx="712928" cy="1207316"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2086,15 +2562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:rowOff>26113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>591230</xdr:colOff>
+      <xdr:colOff>664189</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2111,23 +2587,34 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3785507" y="3927022"/>
-          <a:ext cx="1173616" cy="801460"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3988050" y="3735920"/>
+          <a:ext cx="849772" cy="1248940"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2334,16 +2821,25 @@
             <a:gd name="adj1" fmla="val 6350000"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2411,6 +2907,70 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,85 +3185,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2723,46 +3283,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="E8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="47">
+      <c r="H13" s="39"/>
+      <c r="I13" s="45">
         <v>45877</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="39"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2771,13 +3331,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="G17" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3796,19 +4356,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3820,195 +4380,195 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="A2" s="62"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85">
         <v>45877</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="60"/>
+      <c r="I2" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="66"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="66"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="66"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="66"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="66"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -4999,6 +5559,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5007,25 +5586,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5037,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5049,19 +5609,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5073,48 +5633,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="A2" s="62"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85">
         <v>45877</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="60"/>
+      <c r="I2" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6462,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6474,19 +7034,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6498,40 +7058,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85">
+        <v>45878</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7872,10 +8440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7886,19 +8454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7910,191 +8478,205 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85">
+        <v>45889</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
+      <c r="A7" s="91" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="95"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="95"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="95"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="95"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="95"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
       <c r="A16" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
@@ -8107,105 +8689,183 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A17" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="E17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="119"/>
+      <c r="J17" s="121"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A18" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="E18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="119"/>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A19" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="E19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="119"/>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A20" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="E20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="119"/>
+      <c r="J20" s="121"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A21" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="66"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="90"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="E21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="119"/>
+      <c r="J21" s="121"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A22" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="66"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="E22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="119"/>
+      <c r="J22" s="121"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A23" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="H23" s="81"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="82"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="124"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A24" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="125"/>
+      <c r="G24" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="115"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1">
+      <c r="J25" s="114"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1">
+      <c r="B28" s="113"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1">
+      <c r="G30" s="112"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -9175,18 +9835,12 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+  <mergeCells count="32">
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
@@ -9203,10 +9857,17 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9218,8 +9879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9230,182 +9891,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="68"/>
+      <c r="S1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="84"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="94"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="106">
+        <v>45889</v>
+      </c>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="82"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="95"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="103"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="84"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="66"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="53"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -9430,156 +10099,156 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-    </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" ht="8.25" customHeight="1">
       <c r="A14" s="8"/>
@@ -9605,521 +10274,541 @@
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
       <c r="A15" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="96" t="s">
+      <c r="K15" s="39"/>
+      <c r="L15" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="96" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="96" t="s">
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="96" t="s">
+      <c r="S15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="96" t="s">
+      <c r="T15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="104">
+    </row>
+    <row r="16" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A16" s="96">
         <v>1</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-    </row>
-    <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="104">
+      <c r="B16" s="107"/>
+      <c r="C16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="107"/>
+      <c r="E16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="107"/>
+      <c r="G16" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="111"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="110"/>
+      <c r="L16" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A17" s="96">
         <v>2</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="111"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+    </row>
+    <row r="18" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A18" s="96">
+        <v>3</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+    </row>
+    <row r="19" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A19" s="96">
+        <v>4</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+    </row>
+    <row r="20" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A20" s="96"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+    </row>
+    <row r="21" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A21" s="96"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+    </row>
+    <row r="22" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A22" s="96"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+    </row>
+    <row r="23" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A23" s="96"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+    </row>
+    <row r="24" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A24" s="96"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+    </row>
+    <row r="25" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+    </row>
+    <row r="26" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A26" s="96"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+    </row>
+    <row r="27" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A27" s="96"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+    </row>
+    <row r="28" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A28" s="96"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+    </row>
+    <row r="29" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A29" s="96"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+    </row>
+    <row r="30" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A30" s="96"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+    </row>
+    <row r="31" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A31" s="98"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
       <c r="D32" s="3"/>
@@ -11108,6 +11797,118 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -11132,121 +11933,9 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEDCC7-1AFE-4587-A058-6AA35B144279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE0572C-9E7D-4851-96E8-A1D1518D6890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="テスト仕様書兼結果報告書" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -572,22 +571,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>各項目を任意に適当な値に変更</t>
-    <rPh sb="0" eb="3">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>変更内容がDBに登録され、登録成功画面に遷移する。</t>
     <rPh sb="0" eb="4">
       <t>ヘンコウナイヨウ</t>
@@ -611,29 +594,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>DBへの接続不良時のエラー表示</t>
-    <rPh sb="4" eb="8">
-      <t>セツゾクフリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>MySQLを起動せずに変更を行う。</t>
-    <rPh sb="6" eb="8">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>DBの内容が更新されず、エラー画面に遷移する。</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -646,25 +606,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>変更内容を消去して編集ボタンを押した場合</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンコウナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウキョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -679,41 +620,262 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>文字化け</t>
+    <t>各項目に任意に適当な値に入力。更新を押す。</t>
     <rPh sb="0" eb="3">
-      <t>モジバ</t>
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>日本語の文字列を入力し更新する。</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
+    <t>DBを起動せずに更新を行う。</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>DBの内容が入力した文字通りになっている。</t>
+    <t>セッションが存在しない。</t>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セッション管理。URLを直接叩く形で入った場合など。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チョクセツタタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログアウトした後にブラウザバックにて編集画面に遷移</t>
+    <rPh sb="7" eb="8">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>接続。DBへの接続不良時のエラー表示</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セツゾクフリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力検査。変更内容を消去して編集ボタンを押した場合</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクケンサ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク名に５０文字入力する。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>正常に更新される。</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク名に５1文字入力する。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモに100文字入力する。</t>
     <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモに101文字入力する。</t>
+    <rPh sb="6" eb="8">
       <t>モジ</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>ドオ</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>文字数制限。境界値テスト。タスク名。最大長でエラーにならない。</t>
+    <rPh sb="0" eb="5">
+      <t>モジスウセイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>文字数制限。境界値テスト。メモ。最大長でエラーにならない。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>スウセイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>文字数制限。境界値テスト。タスク名。最大長+1でエラーになる。</t>
+    <rPh sb="0" eb="5">
+      <t>モジスウセイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>文字数制限。境界値テスト。メモ。最大長+1でエラーになる。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更を行った後、DBの更新日時が正常に更新されているか。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>任意の適当な内容を入力し、更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBの更新日時が更新した時間に変更される。</t>
+    <rPh sb="3" eb="7">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -725,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -808,6 +970,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -823,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1581,11 +1750,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1697,6 +1947,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,30 +1998,117 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1757,111 +2118,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1874,107 +2169,149 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3185,85 +3522,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -3283,46 +3620,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="45">
+      <c r="H13" s="47"/>
+      <c r="I13" s="53">
         <v>45877</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="37"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -3331,13 +3668,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -4356,19 +4693,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4380,195 +4717,195 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="81" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="49" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="53"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="53"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="54" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="53"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="54" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="53"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="53"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="52" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="53"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="46" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -5559,17 +5896,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5578,14 +5912,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5609,19 +5946,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5633,48 +5970,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="81" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45877</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7034,19 +7371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7058,48 +7395,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="81" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45878</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8454,19 +8791,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -8478,192 +8815,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="81" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85">
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45889</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="91" t="e" vm="1">
+      <c r="A7" s="99" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="94"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="94"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="94"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="94"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="94"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="94"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="52" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="15" t="s">
         <v>25</v>
       </c>
@@ -8672,11 +9009,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
@@ -8689,18 +9026,18 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>64</v>
@@ -8709,18 +9046,18 @@
         <v>65</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="119"/>
-      <c r="J17" s="121"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="111"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
         <v>66</v>
@@ -8729,18 +9066,18 @@
         <v>67</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="119"/>
-      <c r="J18" s="121"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
         <v>68</v>
@@ -8749,18 +9086,18 @@
         <v>69</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="119"/>
-      <c r="J19" s="121"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
         <v>66</v>
@@ -8769,18 +9106,18 @@
         <v>70</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="119"/>
-      <c r="J20" s="121"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="111"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>66</v>
@@ -8789,18 +9126,18 @@
         <v>71</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="119"/>
-      <c r="J21" s="121"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>72</v>
@@ -8809,18 +9146,18 @@
         <v>73</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="119"/>
-      <c r="J22" s="121"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36" t="s">
         <v>80</v>
@@ -8829,40 +9166,38 @@
       <c r="G23" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="124"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="128" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="115"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1">
-      <c r="J25" s="114"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="27" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1">
-      <c r="B28" s="113"/>
-    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="29" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
-      <c r="G30" s="112"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="32" spans="1:11" ht="12.75" customHeight="1"/>
@@ -9836,6 +10171,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
@@ -9852,22 +10203,6 @@
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9879,8 +10214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9891,190 +10226,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="80" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="80" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="80" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="80" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="51"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="81" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="81" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="106">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="119">
         <v>45889</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="81" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="82"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="93"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="108"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="94"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="109"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="104"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="120"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="49" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="52" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="53"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="72"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="52" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="53"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="72"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10273,37 +10608,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="103" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="95" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="95" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="95" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="95" t="s">
+      <c r="K15" s="47"/>
+      <c r="L15" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="95" t="s">
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="15" t="s">
         <v>46</v>
       </c>
@@ -10314,38 +10649,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A16" s="96">
+    <row r="16" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A16" s="121">
         <v>1</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="126"/>
+      <c r="C16" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="97" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="102" t="s">
+      <c r="F16" s="126"/>
+      <c r="G16" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="100" t="s">
+      <c r="K16" s="115"/>
+      <c r="L16" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="123"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="108"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="109"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="124"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
@@ -10356,36 +10691,36 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A17" s="96">
+    <row r="17" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A17" s="121">
         <v>2</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="126"/>
+      <c r="C17" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="97" t="s">
+      <c r="D17" s="126"/>
+      <c r="E17" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="109"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="124"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
@@ -10396,34 +10731,34 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A18" s="96">
+    <row r="18" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A18" s="121">
         <v>3</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="126"/>
+      <c r="G18" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -10434,39 +10769,41 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
     </row>
-    <row r="19" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A19" s="96">
+    <row r="19" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A19" s="133">
         <v>4</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="102" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="130"/>
+      <c r="G19" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="136"/>
+      <c r="L19" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="100" t="s">
+      <c r="M19" s="138"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="141"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -10474,55 +10811,77 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
+    <row r="20" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A20" s="154">
+        <v>5</v>
+      </c>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="158"/>
+      <c r="U20" s="152"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
     </row>
-    <row r="21" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
+    <row r="21" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A21" s="142"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="132"/>
+      <c r="E21" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="132"/>
+      <c r="G21" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="148"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="151"/>
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -10530,24 +10889,34 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
     </row>
-    <row r="22" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39"/>
+    <row r="22" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A22" s="121"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
@@ -10558,24 +10927,34 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
     </row>
-    <row r="23" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="39"/>
+    <row r="23" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A23" s="121"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="30"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
@@ -10586,24 +10965,36 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
     </row>
-    <row r="24" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+    <row r="24" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A24" s="121">
+        <v>6</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
@@ -10614,24 +11005,24 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
     </row>
-    <row r="25" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+    <row r="25" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A25" s="121"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
@@ -10642,24 +11033,24 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
     </row>
-    <row r="26" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A26" s="96"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39"/>
+    <row r="26" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A26" s="121"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
@@ -10670,24 +11061,24 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
     </row>
-    <row r="27" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
+    <row r="27" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A27" s="121"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="30"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
@@ -10698,24 +11089,24 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
     </row>
-    <row r="28" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39"/>
+    <row r="28" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A28" s="121"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
@@ -10726,24 +11117,24 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
     </row>
-    <row r="29" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
+    <row r="29" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A29" s="121"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
@@ -10754,24 +11145,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
     </row>
-    <row r="30" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
+    <row r="30" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A30" s="121"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
@@ -10782,24 +11173,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
     </row>
-    <row r="31" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="58"/>
+    <row r="31" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A31" s="127"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="75"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -11797,118 +12188,18 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -11933,6 +12224,106 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE0572C-9E7D-4851-96E8-A1D1518D6890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F163CE-FA89-4917-A112-9DD7740DDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -320,69 +320,9 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>DBにデータが登録され、メニュー画面に遷移にできる。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>無し。</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力要素がデータ型に合わない。Jspでポップアップを表示。対応できない場合、エラー画面へ到達。ユースケース終了。
-DBに接続できない。エラー画面を表示し、ユースケースを終了。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -864,18 +804,215 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>DBの更新日時が更新した時間に変更される。</t>
+    <t>HTMLインジェクション対策。</t>
+    <rPh sb="12" eb="14">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>textbox textareaに「&lt;&gt;&amp;'"」を入力する。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>該当する文字列がべて「？」に変換され登録される。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力が１００文字目で止まる。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力が50文字目で止まる。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBの更新日時が適当な値に変更される。</t>
     <rPh sb="3" eb="7">
       <t>コウシンニチジ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>URLのtask_idに存在しない値が入力された場合</t>
     <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログインのみ完了している</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task.jspまでは正常に遷移している</t>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task.jspに遷移する。</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>URLのtask_idに不正な値を入力する。</t>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>login.jspに遷移する。　</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DBにデータが登録され、メニュー画面に遷移にできる。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力要素がデータ型に合わない：Jspでポップアップを表示。対応できない場合、エラー画面へ到達。ユースケース終了。
+DBに接続できない：エラー画面を表示し、ユースケースを終了。
+Formに不正な値が入力された：不正な個所のみ修正し、基本フローに回帰。ユースケースを終了。
+URLが不正な値：TaskListServletに遷移。ユースケースを終了。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1971,6 +2108,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,12 +2156,111 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,114 +2270,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2136,24 +2318,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2166,14 +2333,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2184,90 +2363,84 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2276,42 +2449,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3522,85 +3659,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -3620,46 +3757,46 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="53">
+      <c r="H13" s="54"/>
+      <c r="I13" s="60">
         <v>45877</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="45"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -3668,13 +3805,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -4681,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4693,19 +4830,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4717,195 +4854,195 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45877</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
       <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="89" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="90"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="71" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="72"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="72"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="91" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="72"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="92" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="72"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="72"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="72"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="71" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A13" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="72"/>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="88"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -5896,6 +6033,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5904,25 +6060,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5946,19 +6083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5970,48 +6107,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45877</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7371,19 +7508,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7395,48 +7532,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45878</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8779,7 +8916,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
@@ -8791,19 +8928,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -8815,205 +8952,205 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="62">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45889</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="106" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="90"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="72"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="99" t="e" vm="1">
+      <c r="A7" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="109"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="109"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="109"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="109"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="109"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="109"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="72"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
@@ -9026,163 +9163,163 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
+      <c r="A17" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="105"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A18" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="111"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="105"/>
+      <c r="J18" s="107"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A19" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="104"/>
-      <c r="J18" s="111"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="105"/>
+      <c r="J19" s="107"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A20" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="111"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="111"/>
+      <c r="H20" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="105"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
+      <c r="A21" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="105"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A22" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="104"/>
-      <c r="J22" s="111"/>
+      <c r="H22" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="105"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
+      <c r="A23" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="102"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="112"/>
+        <v>79</v>
+      </c>
+      <c r="H23" s="96"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="A24" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -10171,26 +10308,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -10203,6 +10320,26 @@
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J13"/>
     <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10214,8 +10351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:I24"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10226,190 +10363,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="54" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="83"/>
+      <c r="S1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="90"/>
+      <c r="T1" s="66"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="56" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="119">
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="153">
         <v>45889</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="108"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="109"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="120"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="154"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="90"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="72"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="68"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="71" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="72"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10471,7 +10608,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="25"/>
@@ -10608,37 +10745,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="110" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="110" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="110" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="110" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="110" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
       <c r="R15" s="15" t="s">
         <v>46</v>
       </c>
@@ -10650,37 +10787,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A16" s="121">
+      <c r="A16" s="133">
         <v>1</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="113" t="s">
+      <c r="B16" s="141"/>
+      <c r="C16" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="141"/>
+      <c r="E16" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="141"/>
+      <c r="G16" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="131"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="124"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="132"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
@@ -10692,35 +10829,35 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A17" s="121">
+      <c r="A17" s="133">
         <v>2</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="124"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="141"/>
+      <c r="E17" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
@@ -10732,33 +10869,33 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A18" s="121">
+      <c r="A18" s="133">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="122" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="141"/>
+      <c r="E18" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="124"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="132"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -10770,40 +10907,40 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A19" s="133">
+      <c r="A19" s="143">
         <v>4</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="134" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="145"/>
+      <c r="E19" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="145"/>
+      <c r="G19" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="148"/>
+      <c r="L19" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="150"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="141"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="46"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -10812,39 +10949,39 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="154">
+      <c r="A20" s="125">
         <v>5</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="155"/>
-      <c r="G20" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="152"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="126"/>
+      <c r="G20" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="49"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
@@ -10852,36 +10989,36 @@
       <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A21" s="142"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="132"/>
-      <c r="G21" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="147" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="151"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="140"/>
+      <c r="G21" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="157"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -10890,33 +11027,33 @@
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="117" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
@@ -10928,33 +11065,33 @@
       <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A23" s="121"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="30"/>
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
@@ -10966,35 +11103,35 @@
       <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A24" s="121">
+      <c r="A24" s="133">
         <v>6</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="117" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
@@ -11006,23 +11143,35 @@
       <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
+      <c r="A25" s="133">
+        <v>7</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
@@ -11034,23 +11183,37 @@
       <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A26" s="121"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
+      <c r="A26" s="133">
+        <v>8</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="54"/>
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
@@ -11062,23 +11225,35 @@
       <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A27" s="121"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="30"/>
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
@@ -11090,23 +11265,23 @@
       <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A28" s="121"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="47"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="54"/>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
@@ -11118,23 +11293,23 @@
       <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A29" s="121"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="47"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="54"/>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
@@ -11146,23 +11321,23 @@
       <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A30" s="121"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="47"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="54"/>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
@@ -11174,23 +11349,23 @@
       <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A31" s="127"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="75"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -12188,15 +12363,109 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:N18"/>
@@ -12221,109 +12490,15 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F163CE-FA89-4917-A112-9DD7740DDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9EC08-5599-40DE-88F3-0926DE8B42F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,82 +938,10 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力要素がデータ型に合わない：Jspでポップアップを表示。対応できない場合、エラー画面へ到達。ユースケース終了。
+    <t>formの入力要素がデータ型に合わない：Jspでポップアップを表示。対応できない場合、エラー画面へ到達。ユースケース終了。
 DBに接続できない：エラー画面を表示し、ユースケースを終了。
-Formに不正な値が入力された：不正な個所のみ修正し、基本フローに回帰。ユースケースを終了。
+formからservletに不正な値：不正な個所のみ修正し、基本フローに回帰。ユースケースを終了。
 URLが不正な値：TaskListServletに遷移。ユースケースを終了。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>シュウリョウ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2156,30 +2084,117 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2189,149 +2204,158 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2353,102 +2377,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4818,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4830,19 +4758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4854,72 +4782,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
+      <c r="G2" s="64"/>
+      <c r="H2" s="69">
         <v>45877</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="64" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="78" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="53"/>
@@ -4927,15 +4855,15 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="68"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="54"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="78" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="53"/>
@@ -4943,15 +4871,15 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="98" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="53"/>
@@ -4959,17 +4887,17 @@
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="99" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="53"/>
@@ -4977,15 +4905,15 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="68"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="98" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="53"/>
@@ -4993,16 +4921,16 @@
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="68"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="76" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="100" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="53"/>
@@ -5010,15 +4938,15 @@
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="68"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="78" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="53"/>
@@ -5026,23 +4954,23 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="68"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="61" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -6033,17 +5961,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -6052,14 +5977,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6086,16 +6014,16 @@
       <c r="A1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6107,48 +6035,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
+      <c r="G2" s="64"/>
+      <c r="H2" s="69">
         <v>45877</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7511,16 +7439,16 @@
       <c r="A1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7532,48 +7460,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
+      <c r="G2" s="64"/>
+      <c r="H2" s="69">
         <v>45878</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8931,16 +8859,16 @@
       <c r="A1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -8952,67 +8880,67 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
+      <c r="G2" s="64"/>
+      <c r="H2" s="69">
         <v>45889</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="116" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="53"/>
@@ -9023,24 +8951,24 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="68"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="114" t="e" vm="1">
+      <c r="A7" s="106" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -9049,10 +8977,10 @@
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="119"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -9061,10 +8989,10 @@
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="119"/>
+      <c r="J9" s="116"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -9073,10 +9001,10 @@
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="119"/>
+      <c r="J10" s="116"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -9085,10 +9013,10 @@
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="119"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -9097,10 +9025,10 @@
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="119"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -9109,10 +9037,10 @@
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="119"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="53"/>
@@ -9123,15 +9051,15 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="68"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="78" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="53"/>
@@ -9146,7 +9074,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="109" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="53"/>
@@ -9163,18 +9091,18 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="117" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="53"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>62</v>
@@ -9186,15 +9114,15 @@
       <c r="H17" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="107"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="118"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
         <v>64</v>
@@ -9206,15 +9134,15 @@
       <c r="H18" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="107"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
         <v>66</v>
@@ -9226,15 +9154,15 @@
       <c r="H19" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="107"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
         <v>64</v>
@@ -9246,15 +9174,15 @@
       <c r="H20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="105"/>
-      <c r="J20" s="107"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>64</v>
@@ -9266,15 +9194,15 @@
       <c r="H21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="107"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>70</v>
@@ -9286,15 +9214,15 @@
       <c r="H22" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="105"/>
-      <c r="J22" s="107"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="115"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36" t="s">
         <v>78</v>
@@ -9303,16 +9231,16 @@
       <c r="G23" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="96"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="119"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
         <v>82</v>
@@ -10308,6 +10236,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -10324,22 +10268,6 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10363,141 +10291,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="95" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="95" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="95" t="s">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="95" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="66"/>
+      <c r="T1" s="97"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="153">
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="126">
         <v>45889</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="118"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="98"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="98"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="56"/>
       <c r="M3" s="56"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="119"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="116"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="154"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="64" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="97"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="53"/>
@@ -10505,7 +10433,7 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="78" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="53"/>
@@ -10520,10 +10448,10 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="53"/>
-      <c r="T6" s="68"/>
+      <c r="T6" s="79"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="53"/>
@@ -10531,7 +10459,7 @@
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="78" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="53"/>
@@ -10546,7 +10474,7 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
-      <c r="T7" s="68"/>
+      <c r="T7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10745,33 +10673,33 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="54"/>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="139" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="54"/>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="117" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="54"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="117" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="117" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="54"/>
-      <c r="L15" s="109" t="s">
+      <c r="L15" s="117" t="s">
         <v>44</v>
       </c>
       <c r="M15" s="53"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="109" t="s">
+      <c r="O15" s="117" t="s">
         <v>45</v>
       </c>
       <c r="P15" s="53"/>
@@ -10787,37 +10715,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A16" s="133">
+      <c r="A16" s="140">
         <v>1</v>
       </c>
       <c r="B16" s="141"/>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="141"/>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="141"/>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="127" t="s">
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130" t="s">
+      <c r="K16" s="122"/>
+      <c r="L16" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="130" t="s">
+      <c r="M16" s="137"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="132"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
@@ -10829,35 +10757,35 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A17" s="133">
+      <c r="A17" s="140">
         <v>2</v>
       </c>
       <c r="B17" s="141"/>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="141"/>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="142" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="141"/>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130" t="s">
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="130" t="s">
+      <c r="M17" s="137"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
@@ -10869,33 +10797,33 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A18" s="133">
+      <c r="A18" s="140">
         <v>3</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="141"/>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="142" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="141"/>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="130" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="132"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -10907,37 +10835,37 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A19" s="143">
+      <c r="A19" s="128">
         <v>4</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="144" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="144" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="146" t="s">
+      <c r="F19" s="130"/>
+      <c r="G19" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="146" t="s">
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="148"/>
-      <c r="L19" s="149" t="s">
+      <c r="K19" s="133"/>
+      <c r="L19" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="150"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="149" t="s">
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="151"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="46"/>
@@ -10949,35 +10877,35 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="125">
+      <c r="A20" s="157">
         <v>5</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125" t="s">
+      <c r="B20" s="157"/>
+      <c r="C20" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126" t="s">
+      <c r="D20" s="157"/>
+      <c r="E20" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="124" t="s">
+      <c r="F20" s="158"/>
+      <c r="G20" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="123" t="s">
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123" t="s">
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
       <c r="R20" s="50"/>
       <c r="S20" s="50"/>
       <c r="T20" s="51"/>
@@ -10989,33 +10917,33 @@
       <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="139" t="s">
+      <c r="D21" s="149"/>
+      <c r="E21" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="156" t="s">
+      <c r="F21" s="149"/>
+      <c r="G21" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="157"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="120" t="s">
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="120" t="s">
+      <c r="M21" s="153"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="154"/>
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
       <c r="T21" s="48"/>
@@ -11027,29 +10955,29 @@
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A22" s="133"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="54"/>
-      <c r="E22" s="134" t="s">
+      <c r="E22" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="120" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="54"/>
-      <c r="J22" s="127"/>
+      <c r="J22" s="120"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="130" t="s">
+      <c r="L22" s="124" t="s">
         <v>101</v>
       </c>
       <c r="M22" s="53"/>
       <c r="N22" s="54"/>
-      <c r="O22" s="130" t="s">
+      <c r="O22" s="124" t="s">
         <v>99</v>
       </c>
       <c r="P22" s="53"/>
@@ -11065,29 +10993,29 @@
       <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A23" s="133"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="142" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="54"/>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="120" t="s">
         <v>106</v>
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="127"/>
+      <c r="J23" s="120"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="130" t="s">
+      <c r="L23" s="124" t="s">
         <v>102</v>
       </c>
       <c r="M23" s="53"/>
       <c r="N23" s="54"/>
-      <c r="O23" s="130" t="s">
+      <c r="O23" s="124" t="s">
         <v>112</v>
       </c>
       <c r="P23" s="53"/>
@@ -11103,31 +11031,31 @@
       <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A24" s="133">
+      <c r="A24" s="140">
         <v>6</v>
       </c>
       <c r="B24" s="54"/>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="54"/>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="54"/>
-      <c r="G24" s="127" t="s">
+      <c r="G24" s="120" t="s">
         <v>107</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="54"/>
-      <c r="J24" s="127"/>
+      <c r="J24" s="120"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="130" t="s">
+      <c r="L24" s="124" t="s">
         <v>108</v>
       </c>
       <c r="M24" s="53"/>
       <c r="N24" s="54"/>
-      <c r="O24" s="130" t="s">
+      <c r="O24" s="124" t="s">
         <v>114</v>
       </c>
       <c r="P24" s="53"/>
@@ -11143,31 +11071,31 @@
       <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A25" s="133">
+      <c r="A25" s="140">
         <v>7</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="54"/>
-      <c r="E25" s="134" t="s">
+      <c r="E25" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="54"/>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="120" t="s">
         <v>109</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="127"/>
+      <c r="J25" s="120"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="130" t="s">
+      <c r="L25" s="124" t="s">
         <v>110</v>
       </c>
       <c r="M25" s="53"/>
       <c r="N25" s="54"/>
-      <c r="O25" s="130" t="s">
+      <c r="O25" s="124" t="s">
         <v>111</v>
       </c>
       <c r="P25" s="53"/>
@@ -11183,33 +11111,33 @@
       <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A26" s="133">
+      <c r="A26" s="140">
         <v>8</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="54"/>
-      <c r="E26" s="134" t="s">
+      <c r="E26" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="54"/>
-      <c r="G26" s="127" t="s">
+      <c r="G26" s="120" t="s">
         <v>115</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="54"/>
-      <c r="J26" s="127" t="s">
+      <c r="J26" s="120" t="s">
         <v>118</v>
       </c>
       <c r="K26" s="54"/>
-      <c r="L26" s="130" t="s">
+      <c r="L26" s="124" t="s">
         <v>120</v>
       </c>
       <c r="M26" s="53"/>
       <c r="N26" s="54"/>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="124" t="s">
         <v>121</v>
       </c>
       <c r="P26" s="53"/>
@@ -11225,31 +11153,31 @@
       <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="142" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="134" t="s">
+      <c r="E27" s="142" t="s">
         <v>75</v>
       </c>
       <c r="F27" s="54"/>
-      <c r="G27" s="127" t="s">
+      <c r="G27" s="120" t="s">
         <v>116</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="54"/>
-      <c r="J27" s="127" t="s">
+      <c r="J27" s="120" t="s">
         <v>117</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="130" t="s">
+      <c r="L27" s="124" t="s">
         <v>116</v>
       </c>
       <c r="M27" s="53"/>
       <c r="N27" s="54"/>
-      <c r="O27" s="130" t="s">
+      <c r="O27" s="124" t="s">
         <v>119</v>
       </c>
       <c r="P27" s="53"/>
@@ -11265,21 +11193,21 @@
       <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A28" s="133"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="134"/>
+      <c r="C28" s="142"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="134"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="54"/>
-      <c r="G28" s="127"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="53"/>
       <c r="I28" s="54"/>
-      <c r="J28" s="127"/>
+      <c r="J28" s="120"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="130"/>
+      <c r="L28" s="124"/>
       <c r="M28" s="53"/>
       <c r="N28" s="54"/>
-      <c r="O28" s="130"/>
+      <c r="O28" s="124"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="30"/>
@@ -11293,21 +11221,21 @@
       <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A29" s="133"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="134"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="134"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="54"/>
-      <c r="G29" s="127"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="53"/>
       <c r="I29" s="54"/>
-      <c r="J29" s="127"/>
+      <c r="J29" s="120"/>
       <c r="K29" s="54"/>
-      <c r="L29" s="130"/>
+      <c r="L29" s="124"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
-      <c r="O29" s="130"/>
+      <c r="O29" s="124"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="30"/>
@@ -11321,21 +11249,21 @@
       <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A30" s="133"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="134"/>
+      <c r="C30" s="142"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="134"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="127"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="127"/>
+      <c r="J30" s="120"/>
       <c r="K30" s="54"/>
-      <c r="L30" s="130"/>
+      <c r="L30" s="124"/>
       <c r="M30" s="53"/>
       <c r="N30" s="54"/>
-      <c r="O30" s="130"/>
+      <c r="O30" s="124"/>
       <c r="P30" s="53"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="30"/>
@@ -11349,23 +11277,23 @@
       <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="82"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -12363,47 +12291,75 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A6:F6"/>
@@ -12428,77 +12384,49 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9EC08-5599-40DE-88F3-0926DE8B42F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C1084-C05B-4CFD-B925-3766EF66E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>

--- a/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C1084-C05B-4CFD-B925-3766EF66E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B545B-7149-44E4-B7ED-EE069A21D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2084,12 +2084,111 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,114 +2198,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,24 +2240,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2255,11 +2261,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2270,113 +2315,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3308,6 +3308,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1064173</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AF6366-491F-4C34-7B0C-A9910EA3CE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1391429"/>
+          <a:ext cx="8789276" cy="3667448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4746,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
@@ -4758,19 +4807,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4782,72 +4831,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="69">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45877</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="75"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="96" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="97"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="67" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="53"/>
@@ -4855,15 +4904,15 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="79"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="54"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="67" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="53"/>
@@ -4871,15 +4920,15 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="79"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="53"/>
@@ -4887,17 +4936,17 @@
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="79"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="88" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="70" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="53"/>
@@ -4905,15 +4954,15 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="79"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="88" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="69" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="53"/>
@@ -4921,16 +4970,16 @@
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="79"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="71" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="53"/>
@@ -4938,15 +4987,15 @@
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="79"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="84" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="67" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="53"/>
@@ -4954,23 +5003,23 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="94" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="95"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -5961,6 +6010,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -5969,25 +6037,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6014,16 +6063,16 @@
       <c r="A1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6035,48 +6084,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="69">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45877</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="75"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7424,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7439,16 +7488,16 @@
       <c r="A1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7460,48 +7509,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="69">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45878</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="75"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8834,6 +8883,7 @@
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8844,7 +8894,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
@@ -8859,16 +8909,16 @@
       <c r="A1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -8880,67 +8930,67 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="69">
+      <c r="G2" s="97"/>
+      <c r="H2" s="100">
         <v>45889</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="86"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="113" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="97"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="114" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="53"/>
@@ -8951,24 +9001,24 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="79"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="106" t="e" vm="1">
+      <c r="A7" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="86"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -8977,10 +9027,10 @@
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="116"/>
+      <c r="J8" s="118"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="86"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -8989,10 +9039,10 @@
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="118"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -9001,10 +9051,10 @@
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="116"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="86"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -9013,10 +9063,10 @@
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="116"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="86"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -9025,10 +9075,10 @@
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
-      <c r="J12" s="116"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -9037,10 +9087,10 @@
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="116"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="53"/>
@@ -9051,15 +9101,15 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="79"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="114" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="67" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="53"/>
@@ -9074,7 +9124,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="114" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="53"/>
@@ -9091,18 +9141,18 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="119" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="53"/>
-      <c r="J16" s="79"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>62</v>
@@ -9114,15 +9164,15 @@
       <c r="H17" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="118"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
         <v>64</v>
@@ -9134,15 +9184,15 @@
       <c r="H18" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="111"/>
-      <c r="J18" s="118"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
         <v>66</v>
@@ -9154,15 +9204,15 @@
       <c r="H19" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="118"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
         <v>64</v>
@@ -9174,15 +9224,15 @@
       <c r="H20" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="118"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>64</v>
@@ -9194,15 +9244,15 @@
       <c r="H21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="118"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>70</v>
@@ -9214,15 +9264,15 @@
       <c r="H22" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="118"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36" t="s">
         <v>78</v>
@@ -9231,16 +9281,16 @@
       <c r="G23" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="119"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
         <v>82</v>
@@ -10236,22 +10286,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -10268,6 +10302,22 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10279,7 +10329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
@@ -10291,141 +10341,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="61" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="61" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="61" t="s">
+      <c r="R1" s="83"/>
+      <c r="S1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="97"/>
+      <c r="T1" s="66"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="86"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="126">
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="155">
         <v>45889</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="63" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="115"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="117"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="65"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="56"/>
       <c r="M3" s="56"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="116"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="118"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="127"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="156"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="96" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="97"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="66"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="114" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="53"/>
@@ -10433,7 +10483,7 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="67" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="53"/>
@@ -10448,10 +10498,10 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="53"/>
-      <c r="T6" s="79"/>
+      <c r="T6" s="68"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="114" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="53"/>
@@ -10459,7 +10509,7 @@
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="67" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="53"/>
@@ -10474,7 +10524,7 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
-      <c r="T7" s="79"/>
+      <c r="T7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10673,33 +10723,33 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="114" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="54"/>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="154" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="54"/>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="119" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="54"/>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="119" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="119" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="54"/>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="119" t="s">
         <v>44</v>
       </c>
       <c r="M15" s="53"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="117" t="s">
+      <c r="O15" s="119" t="s">
         <v>45</v>
       </c>
       <c r="P15" s="53"/>
@@ -10715,37 +10765,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A16" s="140">
+      <c r="A16" s="122">
         <v>1</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="130"/>
+      <c r="E16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="120" t="s">
+      <c r="F16" s="130"/>
+      <c r="G16" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="120" t="s">
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="124" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="137"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="124" t="s">
+      <c r="M16" s="138"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
@@ -10757,35 +10807,35 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A17" s="140">
+      <c r="A17" s="122">
         <v>2</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142" t="s">
+      <c r="D17" s="130"/>
+      <c r="E17" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="120" t="s">
+      <c r="F17" s="130"/>
+      <c r="G17" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="124" t="s">
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="137"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="124" t="s">
+      <c r="M17" s="138"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="139"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
@@ -10797,33 +10847,33 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A18" s="140">
+      <c r="A18" s="122">
         <v>3</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="120" t="s">
+      <c r="F18" s="130"/>
+      <c r="G18" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="124" t="s">
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
@@ -10835,37 +10885,37 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A19" s="128">
+      <c r="A19" s="145">
         <v>4</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="129" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="129" t="s">
+      <c r="D19" s="147"/>
+      <c r="E19" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="131" t="s">
+      <c r="F19" s="147"/>
+      <c r="G19" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="131" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="133"/>
-      <c r="L19" s="134" t="s">
+      <c r="K19" s="150"/>
+      <c r="L19" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="134" t="s">
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="136"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="153"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="46"/>
@@ -10877,35 +10927,35 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="157">
+      <c r="A20" s="120">
         <v>5</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158" t="s">
+      <c r="D20" s="120"/>
+      <c r="E20" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="158"/>
-      <c r="G20" s="156" t="s">
+      <c r="F20" s="121"/>
+      <c r="G20" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="155" t="s">
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155" t="s">
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
       <c r="R20" s="50"/>
       <c r="S20" s="50"/>
       <c r="T20" s="51"/>
@@ -10917,33 +10967,33 @@
       <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="148" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="148" t="s">
+      <c r="D21" s="129"/>
+      <c r="E21" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="143" t="s">
+      <c r="F21" s="129"/>
+      <c r="G21" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="152" t="s">
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="153"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="152" t="s">
+      <c r="M21" s="141"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="154"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="142"/>
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
       <c r="T21" s="48"/>
@@ -10955,29 +11005,29 @@
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A22" s="140"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="54"/>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="123" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="135" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="54"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="135"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="124" t="s">
+      <c r="L22" s="131" t="s">
         <v>101</v>
       </c>
       <c r="M22" s="53"/>
       <c r="N22" s="54"/>
-      <c r="O22" s="124" t="s">
+      <c r="O22" s="131" t="s">
         <v>99</v>
       </c>
       <c r="P22" s="53"/>
@@ -10993,29 +11043,29 @@
       <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A23" s="140"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="142" t="s">
+      <c r="E23" s="123" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="54"/>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="135" t="s">
         <v>106</v>
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="135"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="124" t="s">
+      <c r="L23" s="131" t="s">
         <v>102</v>
       </c>
       <c r="M23" s="53"/>
       <c r="N23" s="54"/>
-      <c r="O23" s="124" t="s">
+      <c r="O23" s="131" t="s">
         <v>112</v>
       </c>
       <c r="P23" s="53"/>
@@ -11031,31 +11081,31 @@
       <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A24" s="140">
+      <c r="A24" s="122">
         <v>6</v>
       </c>
       <c r="B24" s="54"/>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="54"/>
-      <c r="E24" s="142" t="s">
+      <c r="E24" s="123" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="54"/>
-      <c r="G24" s="120" t="s">
+      <c r="G24" s="135" t="s">
         <v>107</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="54"/>
-      <c r="J24" s="120"/>
+      <c r="J24" s="135"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="124" t="s">
+      <c r="L24" s="131" t="s">
         <v>108</v>
       </c>
       <c r="M24" s="53"/>
       <c r="N24" s="54"/>
-      <c r="O24" s="124" t="s">
+      <c r="O24" s="131" t="s">
         <v>114</v>
       </c>
       <c r="P24" s="53"/>
@@ -11071,31 +11121,31 @@
       <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A25" s="140">
+      <c r="A25" s="122">
         <v>7</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="54"/>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="123" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="54"/>
-      <c r="G25" s="120" t="s">
+      <c r="G25" s="135" t="s">
         <v>109</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="120"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="124" t="s">
+      <c r="L25" s="131" t="s">
         <v>110</v>
       </c>
       <c r="M25" s="53"/>
       <c r="N25" s="54"/>
-      <c r="O25" s="124" t="s">
+      <c r="O25" s="131" t="s">
         <v>111</v>
       </c>
       <c r="P25" s="53"/>
@@ -11111,33 +11161,33 @@
       <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A26" s="140">
+      <c r="A26" s="122">
         <v>8</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="54"/>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="123" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="54"/>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="135" t="s">
         <v>115</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="54"/>
-      <c r="J26" s="120" t="s">
+      <c r="J26" s="135" t="s">
         <v>118</v>
       </c>
       <c r="K26" s="54"/>
-      <c r="L26" s="124" t="s">
+      <c r="L26" s="131" t="s">
         <v>120</v>
       </c>
       <c r="M26" s="53"/>
       <c r="N26" s="54"/>
-      <c r="O26" s="124" t="s">
+      <c r="O26" s="131" t="s">
         <v>121</v>
       </c>
       <c r="P26" s="53"/>
@@ -11153,31 +11203,31 @@
       <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="123" t="s">
         <v>75</v>
       </c>
       <c r="F27" s="54"/>
-      <c r="G27" s="120" t="s">
+      <c r="G27" s="135" t="s">
         <v>116</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="54"/>
-      <c r="J27" s="120" t="s">
+      <c r="J27" s="135" t="s">
         <v>117</v>
       </c>
       <c r="K27" s="54"/>
-      <c r="L27" s="124" t="s">
+      <c r="L27" s="131" t="s">
         <v>116</v>
       </c>
       <c r="M27" s="53"/>
       <c r="N27" s="54"/>
-      <c r="O27" s="124" t="s">
+      <c r="O27" s="131" t="s">
         <v>119</v>
       </c>
       <c r="P27" s="53"/>
@@ -11193,21 +11243,21 @@
       <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A28" s="140"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="142"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="142"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="54"/>
-      <c r="G28" s="120"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="53"/>
       <c r="I28" s="54"/>
-      <c r="J28" s="120"/>
+      <c r="J28" s="135"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="124"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="53"/>
       <c r="N28" s="54"/>
-      <c r="O28" s="124"/>
+      <c r="O28" s="131"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="30"/>
@@ -11221,21 +11271,21 @@
       <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A29" s="140"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="142"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="142"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="54"/>
-      <c r="G29" s="120"/>
+      <c r="G29" s="135"/>
       <c r="H29" s="53"/>
       <c r="I29" s="54"/>
-      <c r="J29" s="120"/>
+      <c r="J29" s="135"/>
       <c r="K29" s="54"/>
-      <c r="L29" s="124"/>
+      <c r="L29" s="131"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
-      <c r="O29" s="124"/>
+      <c r="O29" s="131"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="30"/>
@@ -11249,21 +11299,21 @@
       <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A30" s="140"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="142"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="142"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="120"/>
+      <c r="G30" s="135"/>
       <c r="H30" s="53"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="120"/>
+      <c r="J30" s="135"/>
       <c r="K30" s="54"/>
-      <c r="L30" s="124"/>
+      <c r="L30" s="131"/>
       <c r="M30" s="53"/>
       <c r="N30" s="54"/>
-      <c r="O30" s="124"/>
+      <c r="O30" s="131"/>
       <c r="P30" s="53"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="30"/>
@@ -11277,23 +11327,23 @@
       <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="82"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
@@ -12291,6 +12341,118 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
@@ -12315,118 +12477,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="G20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
